--- a/data/trans_bre/P8_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P8_1_R-Edad-trans_bre.xlsx
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 2,7</t>
+          <t>-1,02; 2,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 4,03</t>
+          <t>-0,56; 4,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,46</t>
+          <t>0,8; 4,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 1,41</t>
+          <t>-3,74; 1,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,16; 302,05</t>
+          <t>-47,91; 307,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,05; 406,39</t>
+          <t>-31,82; 392,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,79; —</t>
+          <t>-7,95; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 4,27</t>
+          <t>-0,27; 4,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,46</t>
+          <t>-1,11; 3,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,55</t>
+          <t>-1,11; 3,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,51; -1,48</t>
+          <t>-7,55; -1,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 187,04</t>
+          <t>-11,91; 181,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,18; 136,49</t>
+          <t>-30,09; 128,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,82; 157,83</t>
+          <t>-27,84; 160,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-92,59; -31,92</t>
+          <t>-92,86; -30,24</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 6,12</t>
+          <t>1,11; 6,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 8,23</t>
+          <t>2,21; 8,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 5,16</t>
+          <t>-0,44; 5,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 4,43</t>
+          <t>-0,75; 4,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,32; 196,21</t>
+          <t>10,97; 209,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,62; 166,65</t>
+          <t>28,01; 167,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 128,27</t>
+          <t>-8,88; 130,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,98; 107,67</t>
+          <t>-11,83; 123,32</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,57; 11,99</t>
+          <t>4,07; 11,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 10,24</t>
+          <t>1,94; 9,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 7,78</t>
+          <t>-0,03; 8,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 4,32</t>
+          <t>-20,53; 4,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,53; 212,29</t>
+          <t>50,42; 210,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,45; 106,63</t>
+          <t>13,17; 104,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 80,99</t>
+          <t>-0,98; 83,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,2; 39,72</t>
+          <t>-62,15; 39,33</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 13,01</t>
+          <t>1,31; 14,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,81; 24,18</t>
+          <t>11,45; 24,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,62; 18,21</t>
+          <t>6,52; 18,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 9,03</t>
+          <t>0,73; 9,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,48; 71,92</t>
+          <t>5,25; 80,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>50,28; 147,25</t>
+          <t>50,15; 143,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,59; 111,54</t>
+          <t>29,25; 111,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,14; 52,95</t>
+          <t>3,24; 52,78</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,88; 32,04</t>
+          <t>20,92; 31,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,36; 24,77</t>
+          <t>13,49; 24,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,59; 22,15</t>
+          <t>11,41; 21,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,94; 23,89</t>
+          <t>1,78; 23,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>50,5; 93,0</t>
+          <t>49,4; 91,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,47; 53,78</t>
+          <t>25,52; 54,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,16; 56,44</t>
+          <t>24,82; 55,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,49; 70,51</t>
+          <t>6,19; 70,96</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,59; 12,13</t>
+          <t>8,39; 11,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,83; 12,65</t>
+          <t>8,75; 12,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,84; 10,65</t>
+          <t>6,78; 10,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 7,87</t>
+          <t>-0,11; 7,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>70,45; 116,02</t>
+          <t>68,36; 114,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>56,0; 92,77</t>
+          <t>56,65; 92,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>47,23; 81,89</t>
+          <t>46,15; 79,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 52,78</t>
+          <t>-3,98; 51,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P8_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P8_1_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 2,69</t>
+          <t>-0,87; 2,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 4,0</t>
+          <t>-0,3; 3,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,53</t>
+          <t>0,95; 4,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-47,91; 307,98</t>
+          <t>-44,75; 318,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,82; 392,93</t>
+          <t>-22,78; 401,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,95; —</t>
+          <t>11,79; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 4,29</t>
+          <t>-0,22; 4,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 3,5</t>
+          <t>-1,18; 3,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 3,6</t>
+          <t>-1,21; 3,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 181,09</t>
+          <t>-11,13; 200,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,09; 128,12</t>
+          <t>-28,44; 151,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 160,12</t>
+          <t>-30,25; 164,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 6,81</t>
+          <t>1,24; 6,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 8,06</t>
+          <t>1,9; 8,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,0</t>
+          <t>-0,28; 5,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,97; 209,7</t>
+          <t>18,0; 210,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,01; 167,81</t>
+          <t>23,13; 165,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 130,26</t>
+          <t>-7,7; 119,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 11,71</t>
+          <t>4,1; 11,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 9,92</t>
+          <t>1,65; 9,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 8,28</t>
+          <t>0,04; 7,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,42; 210,1</t>
+          <t>48,8; 209,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,17; 104,58</t>
+          <t>13,44; 102,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 83,48</t>
+          <t>0,05; 81,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 14,18</t>
+          <t>1,6; 13,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,45; 24,44</t>
+          <t>12,05; 24,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,52; 18,12</t>
+          <t>6,98; 18,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,25; 80,92</t>
+          <t>6,09; 76,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>50,15; 143,08</t>
+          <t>53,33; 145,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,25; 111,87</t>
+          <t>32,31; 113,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,92; 31,91</t>
+          <t>20,27; 31,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,49; 24,76</t>
+          <t>13,51; 24,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,41; 21,95</t>
+          <t>11,17; 22,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>49,4; 91,09</t>
+          <t>48,79; 91,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,52; 54,01</t>
+          <t>25,66; 55,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,82; 55,41</t>
+          <t>24,87; 55,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,39; 11,99</t>
+          <t>8,45; 11,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,75; 12,55</t>
+          <t>8,72; 12,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,78; 10,56</t>
+          <t>6,86; 10,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>68,36; 114,23</t>
+          <t>69,17; 112,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>56,65; 92,05</t>
+          <t>55,63; 91,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>46,15; 79,94</t>
+          <t>46,71; 82,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P8_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P8_1_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,9</t>
+          <t>-0,9; 2,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 3,98</t>
+          <t>-0,47; 4,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,7</t>
+          <t>0,82; 4,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 1,54</t>
+          <t>-3,9; 1,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-44,75; 318,67</t>
+          <t>-49,16; 302,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,78; 401,95</t>
+          <t>-30,05; 406,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,79; —</t>
+          <t>-21,79; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 4,29</t>
+          <t>-0,29; 4,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 3,56</t>
+          <t>-0,93; 3,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,85</t>
+          <t>-1,15; 3,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,55; -1,35</t>
+          <t>-7,51; -1,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 200,56</t>
+          <t>-11,2; 187,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,44; 151,59</t>
+          <t>-24,18; 136,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,25; 164,03</t>
+          <t>-29,82; 157,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-92,86; -30,24</t>
+          <t>-92,59; -31,92</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 6,49</t>
+          <t>1,17; 6,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 8,17</t>
+          <t>1,89; 8,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 5,14</t>
+          <t>-0,21; 5,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 4,74</t>
+          <t>-1,04; 4,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,0; 210,29</t>
+          <t>19,32; 196,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,13; 165,66</t>
+          <t>24,62; 166,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 119,54</t>
+          <t>-3,81; 128,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 123,32</t>
+          <t>-15,98; 107,67</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 11,81</t>
+          <t>4,57; 11,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 9,43</t>
+          <t>2,07; 10,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,04; 7,68</t>
+          <t>0,13; 7,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,53; 4,15</t>
+          <t>-22,63; 4,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,8; 209,96</t>
+          <t>47,53; 212,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,44; 102,73</t>
+          <t>14,45; 106,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 81,02</t>
+          <t>0,43; 80,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-62,15; 39,33</t>
+          <t>-63,2; 39,72</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 13,59</t>
+          <t>0,85; 13,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,05; 24,27</t>
+          <t>11,81; 24,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,98; 18,41</t>
+          <t>6,62; 18,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 9,27</t>
+          <t>0,97; 9,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,09; 76,94</t>
+          <t>3,48; 71,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,33; 145,31</t>
+          <t>50,28; 147,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,31; 113,74</t>
+          <t>29,59; 111,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,24; 52,78</t>
+          <t>4,14; 52,95</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,27; 31,41</t>
+          <t>20,88; 32,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,51; 24,88</t>
+          <t>13,36; 24,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,17; 22,05</t>
+          <t>11,59; 22,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,78; 23,82</t>
+          <t>0,94; 23,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>48,79; 91,21</t>
+          <t>50,5; 93,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,66; 55,4</t>
+          <t>25,47; 53,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,87; 55,89</t>
+          <t>26,16; 56,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,19; 70,96</t>
+          <t>3,49; 70,51</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,45; 11,78</t>
+          <t>8,59; 12,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,72; 12,61</t>
+          <t>8,83; 12,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,86; 10,82</t>
+          <t>6,84; 10,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 7,8</t>
+          <t>-0,16; 7,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>69,17; 112,43</t>
+          <t>70,45; 116,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>55,63; 91,09</t>
+          <t>56,0; 92,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>46,71; 82,76</t>
+          <t>47,23; 81,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 51,65</t>
+          <t>-3,15; 52,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P8_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P8_1_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-43,76%</t>
+          <t>-49,78%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 1,41</t>
+          <t>-3,98; 1,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-75,48%</t>
+          <t>-78,99%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,51; -1,48</t>
+          <t>-8,01; -1,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-92,59; -31,92</t>
+          <t>-94,65; -45,13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>34,3%</t>
+          <t>24,67%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 4,43</t>
+          <t>-1,72; 4,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,98; 107,67</t>
+          <t>-24,52; 96,05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-21,99</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-18,57%</t>
+          <t>-61,55%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 4,32</t>
+          <t>-56,48; 3,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,2; 39,72</t>
+          <t>-81,2; 34,25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>23,52%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 9,03</t>
+          <t>0,89; 8,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,14; 52,95</t>
+          <t>3,58; 50,9</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>26,22</t>
+          <t>25,98</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,06</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,99</t>
+          <t>15,93</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,3</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>68,78%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>38,6%</t>
+          <t>57,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>40,75%</t>
+          <t>51,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>47,08%</t>
+          <t>10,86%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,88; 32,04</t>
+          <t>17,73; 32,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,36; 24,77</t>
+          <t>11,97; 27,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,59; 22,15</t>
+          <t>9,01; 23,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,94; 23,89</t>
+          <t>-14,73; 16,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>50,5; 93,0</t>
+          <t>55,46; 139,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,47; 53,78</t>
+          <t>31,24; 90,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,16; 56,44</t>
+          <t>25,79; 84,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,49; 70,51</t>
+          <t>-59,42; 73,25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,26</t>
+          <t>22,45</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,7</t>
+          <t>13,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,77</t>
+          <t>14,08</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>24,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>91,93%</t>
+          <t>42,09%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>73,14%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>63,26%</t>
+          <t>25,19%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
+          <t>48,4%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>14,09; 30,37</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6,14; 21,61</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6,54; 21,76</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>18,45; 29,62</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>23,82; 63,21</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8,74; 35,28</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>11,07; 41,82</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>34,02; 64,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10,26</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10,7</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8,77</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>91,93%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>73,14%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>63,26%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-1,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>8,59; 12,13</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>8,83; 12,65</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>6,84; 10,65</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-0,16; 7,87</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-22,4; 6,5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>70,45; 116,02</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>56,0; 92,77</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>47,23; 81,89</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-3,15; 52,78</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-55,18; 44,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P8_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P8_1_R-Edad-trans_bre.xlsx
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 2,7</t>
+          <t>-0,84; 2,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 4,03</t>
+          <t>-0,31; 3,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,46</t>
+          <t>0,87; 4,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 1,02</t>
+          <t>-4,34; 0,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,16; 302,05</t>
+          <t>-38,83; 397,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,05; 406,39</t>
+          <t>-20,72; 446,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,79; —</t>
+          <t>-0,64; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 4,27</t>
+          <t>-0,41; 4,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,46</t>
+          <t>-1,15; 3,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,55</t>
+          <t>-1,31; 3,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,01; -1,69</t>
+          <t>-8,05; -1,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 187,04</t>
+          <t>-13,92; 178,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,18; 136,49</t>
+          <t>-26,46; 135,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,82; 157,83</t>
+          <t>-29,43; 171,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-94,65; -45,13</t>
+          <t>-92,79; -41,71</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 6,12</t>
+          <t>1,1; 6,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 8,23</t>
+          <t>1,95; 8,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 5,16</t>
+          <t>-0,25; 5,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 4,19</t>
+          <t>-1,77; 4,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,32; 196,21</t>
+          <t>19,2; 199,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,62; 166,65</t>
+          <t>24,07; 175,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 128,27</t>
+          <t>-4,79; 130,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 96,05</t>
+          <t>-24,36; 99,57</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,57; 11,99</t>
+          <t>4,31; 11,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 10,24</t>
+          <t>1,43; 9,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 7,78</t>
+          <t>0,37; 8,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-56,48; 3,65</t>
+          <t>-62,85; 3,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,53; 212,29</t>
+          <t>44,61; 207,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,45; 106,63</t>
+          <t>9,74; 104,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 80,99</t>
+          <t>2,16; 84,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-81,2; 34,25</t>
+          <t>-83,29; 31,44</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 13,01</t>
+          <t>1,11; 13,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,81; 24,18</t>
+          <t>11,74; 24,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,62; 18,21</t>
+          <t>6,84; 18,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 8,79</t>
+          <t>0,52; 8,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,48; 71,92</t>
+          <t>4,51; 75,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>50,28; 147,25</t>
+          <t>52,29; 149,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,59; 111,54</t>
+          <t>30,75; 113,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,58; 50,9</t>
+          <t>1,33; 48,71</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,73; 32,47</t>
+          <t>18,53; 32,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,97; 27,19</t>
+          <t>12,49; 27,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,01; 23,35</t>
+          <t>8,74; 23,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 16,67</t>
+          <t>-13,82; 17,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>55,46; 139,63</t>
+          <t>59,86; 141,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>31,24; 90,32</t>
+          <t>30,87; 88,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,79; 84,91</t>
+          <t>25,24; 86,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,42; 73,25</t>
+          <t>-52,46; 78,86</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,09; 30,37</t>
+          <t>13,59; 30,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,14; 21,61</t>
+          <t>6,08; 21,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,54; 21,76</t>
+          <t>6,66; 22,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,45; 29,62</t>
+          <t>18,78; 29,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,82; 63,21</t>
+          <t>22,82; 65,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,74; 35,28</t>
+          <t>8,33; 34,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,07; 41,82</t>
+          <t>11,12; 41,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>34,02; 64,84</t>
+          <t>34,9; 64,74</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,59; 12,13</t>
+          <t>8,48; 12,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,83; 12,65</t>
+          <t>8,73; 12,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,84; 10,65</t>
+          <t>6,93; 10,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,4; 6,5</t>
+          <t>-21,26; 6,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>70,45; 116,02</t>
+          <t>71,36; 115,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>56,0; 92,77</t>
+          <t>56,04; 92,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>47,23; 81,89</t>
+          <t>47,66; 81,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-55,18; 44,88</t>
+          <t>-52,8; 43,65</t>
         </is>
       </c>
     </row>
